--- a/Study.xlsx
+++ b/Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D4BA7-51B1-4EE9-BC97-8C10CDFEAE33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AF4245-CF0E-499B-B557-AA799DB683FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="121" windowWidth="17740" windowHeight="7273" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="253">
   <si>
     <t>all</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1519,11 +1519,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>stats</t>
+    <t>14.310x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Books</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinking</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2016,6 +2024,104 @@
   <dxfs count="23">
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2182,104 +2288,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9573,19 +9581,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目" displayName="项目" ref="B2:H16" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目" displayName="项目" ref="B2:H16" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="course" totalsRowLabel="Total" dataDxfId="6" dataCellStyle="Indent"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="due" dataDxfId="5" dataCellStyle="Indent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="course" totalsRowLabel="Total" dataDxfId="14" dataCellStyle="Indent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="due" dataDxfId="13" dataCellStyle="Indent">
       <calculatedColumnFormula>项目[[#This Row],[next]] - TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="next" dataDxfId="4" dataCellStyle="Indent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="finish" dataDxfId="3" dataCellStyle="Indent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="all" dataDxfId="2" dataCellStyle="Indent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="progress" totalsRowFunction="count" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="next" dataDxfId="12" dataCellStyle="Indent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="finish" dataDxfId="11" dataCellStyle="Indent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="all" dataDxfId="10" dataCellStyle="Indent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="progress" totalsRowFunction="count" dataDxfId="9">
       <calculatedColumnFormula>项目[[#This Row],[finish]]/项目[[#This Row],[all]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="link" totalsRowFunction="count" dataDxfId="0" dataCellStyle="Indent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="link" totalsRowFunction="count" dataDxfId="8" dataCellStyle="Indent"/>
   </tableColumns>
   <tableStyleInfo name="Weekly Planner Tables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -10426,34 +10434,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C5 C13:C16">
-    <cfRule type="cellIs" dxfId="17" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="40" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="between">
       <formula>7</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="43" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="44" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C5 C13:C16">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="between">
       <formula>7</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10509,8 +10517,8 @@
   </sheetPr>
   <dimension ref="A1:AA800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="C799" sqref="C799"/>
+    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
+      <selection activeCell="C802" sqref="C802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.35"/>
@@ -26880,7 +26888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="2:7">
+    <row r="769" spans="2:9">
       <c r="B769" s="21">
         <v>43499</v>
       </c>
@@ -26901,7 +26909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770" spans="2:7">
+    <row r="770" spans="2:9">
       <c r="B770" s="21">
         <v>43499</v>
       </c>
@@ -26922,7 +26930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="771" spans="2:7">
+    <row r="771" spans="2:9">
       <c r="B771" s="21">
         <v>43499</v>
       </c>
@@ -26943,7 +26951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="772" spans="2:7">
+    <row r="772" spans="2:9">
       <c r="B772" s="21">
         <v>43499</v>
       </c>
@@ -26964,7 +26972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="2:7">
+    <row r="773" spans="2:9">
       <c r="B773" s="21">
         <v>43499</v>
       </c>
@@ -26985,7 +26993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="2:7">
+    <row r="774" spans="2:9">
       <c r="B774" s="21">
         <v>43499</v>
       </c>
@@ -27006,7 +27014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="2:7">
+    <row r="775" spans="2:9">
       <c r="B775" s="21">
         <v>43500</v>
       </c>
@@ -27027,56 +27035,107 @@
         <v>13</v>
       </c>
     </row>
-    <row r="776" spans="2:7">
+    <row r="776" spans="2:9">
       <c r="B776" s="21">
         <v>43501</v>
       </c>
-      <c r="E776" s="20"/>
-      <c r="F776" s="47"/>
-    </row>
-    <row r="777" spans="2:7">
+      <c r="E776" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F776" s="47">
+        <v>2</v>
+      </c>
+      <c r="G776" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H776" s="20"/>
+      <c r="I776" s="47"/>
+    </row>
+    <row r="777" spans="2:9">
       <c r="B777" s="21">
         <v>43502</v>
       </c>
-      <c r="E777" s="20"/>
-      <c r="F777" s="47"/>
-    </row>
-    <row r="778" spans="2:7">
+      <c r="E777" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F777" s="47">
+        <v>2</v>
+      </c>
+      <c r="G777" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="778" spans="2:9">
       <c r="B778" s="21">
         <v>43503</v>
       </c>
-      <c r="E778" s="20"/>
-      <c r="F778" s="47"/>
-    </row>
-    <row r="779" spans="2:7">
+      <c r="E778" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F778" s="47">
+        <v>1</v>
+      </c>
+      <c r="G778" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="779" spans="2:9">
       <c r="B779" s="21">
         <v>43504</v>
       </c>
-      <c r="E779" s="20"/>
-      <c r="F779" s="47"/>
-    </row>
-    <row r="780" spans="2:7">
+      <c r="E779" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F779" s="47">
+        <v>1</v>
+      </c>
+      <c r="G779" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="780" spans="2:9">
       <c r="B780" s="21">
         <v>43505</v>
       </c>
-      <c r="E780" s="20"/>
-      <c r="F780" s="47"/>
-    </row>
-    <row r="781" spans="2:7">
+      <c r="E780" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F780" s="47">
+        <v>1</v>
+      </c>
+      <c r="G780" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="781" spans="2:9">
       <c r="B781" s="21">
         <v>43506</v>
       </c>
-      <c r="E781" s="20"/>
-      <c r="F781" s="47"/>
-    </row>
-    <row r="782" spans="2:7">
+      <c r="E781" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F781" s="47">
+        <v>1</v>
+      </c>
+      <c r="G781" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="782" spans="2:9">
       <c r="B782" s="21">
         <v>43507</v>
       </c>
-      <c r="E782" s="20"/>
-      <c r="F782" s="47"/>
-    </row>
-    <row r="783" spans="2:7">
+      <c r="E782" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F782" s="47">
+        <v>1</v>
+      </c>
+      <c r="G782" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="783" spans="2:9">
       <c r="B783" s="21">
         <v>43508</v>
       </c>
@@ -27087,17 +27146,17 @@
         <v>1</v>
       </c>
       <c r="E783" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F783" s="47">
         <f t="shared" ref="F783" si="335">(D783-C783)*24</f>
         <v>1.5</v>
       </c>
       <c r="G783" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="784" spans="2:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="784" spans="2:9">
       <c r="B784" s="21">
         <v>43509</v>
       </c>
@@ -27108,14 +27167,14 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="E784" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F784" s="47">
         <f t="shared" ref="F784" si="336">(D784-C784)*24</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="G784" s="19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="785" spans="2:7">
@@ -27129,14 +27188,14 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="E785" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F785" s="47">
         <f t="shared" ref="F785:F787" si="337">(D785-C785)*24</f>
         <v>1.5000000000000013</v>
       </c>
       <c r="G785" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="786" spans="2:7">
@@ -27150,14 +27209,14 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="E786" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F786" s="47">
         <f t="shared" si="337"/>
         <v>0.33333333333333215</v>
       </c>
       <c r="G786" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="787" spans="2:7">
@@ -27171,14 +27230,14 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="E787" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F787" s="47">
         <f t="shared" si="337"/>
         <v>0.55000000000000071</v>
       </c>
       <c r="G787" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="788" spans="2:7">
@@ -27192,14 +27251,14 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="E788" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F788" s="47">
         <f t="shared" ref="F788" si="338">(D788-C788)*24</f>
         <v>0.18333333333333268</v>
       </c>
       <c r="G788" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="789" spans="2:7">
@@ -27213,14 +27272,14 @@
         <v>0.91319444444444453</v>
       </c>
       <c r="E789" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F789" s="47">
         <f t="shared" ref="F789:F790" si="339">(D789-C789)*24</f>
         <v>0.75</v>
       </c>
       <c r="G789" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="790" spans="2:7">
@@ -27234,14 +27293,14 @@
         <v>0.98055555555555562</v>
       </c>
       <c r="E790" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F790" s="47">
         <f t="shared" si="339"/>
         <v>0.36666666666666803</v>
       </c>
       <c r="G790" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="791" spans="2:7">
@@ -27255,14 +27314,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E791" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F791" s="47">
         <f t="shared" ref="F791:F795" si="340">(D791-C791)*24</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="G791" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="792" spans="2:7">
@@ -27276,14 +27335,14 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="E792" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F792" s="47">
         <f t="shared" si="340"/>
         <v>0.41666666666666785</v>
       </c>
       <c r="G792" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="793" spans="2:7">
@@ -27297,14 +27356,14 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E793" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F793" s="47">
         <f t="shared" si="340"/>
         <v>0.33333333333333481</v>
       </c>
       <c r="G793" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="794" spans="2:7">
@@ -27318,14 +27377,14 @@
         <v>0.9375</v>
       </c>
       <c r="E794" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F794" s="47">
         <f t="shared" si="340"/>
         <v>0.50000000000000089</v>
       </c>
       <c r="G794" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="795" spans="2:7">
@@ -27339,14 +27398,14 @@
         <v>1</v>
       </c>
       <c r="E795" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F795" s="47">
         <f t="shared" si="340"/>
         <v>0.89999999999999947</v>
       </c>
       <c r="G795" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="796" spans="2:7">
@@ -27360,14 +27419,14 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E796" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F796" s="47">
-        <f t="shared" ref="F796:F800" si="341">(D796-C796)*24</f>
+        <f t="shared" ref="F796:F798" si="341">(D796-C796)*24</f>
         <v>0.89999999999999947</v>
       </c>
       <c r="G796" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="797" spans="2:7">
@@ -27381,14 +27440,14 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E797" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F797" s="47">
         <f t="shared" si="341"/>
         <v>0.8333333333333357</v>
       </c>
       <c r="G797" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="798" spans="2:7">
@@ -27402,45 +27461,23 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="E798" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F798" s="47">
         <f t="shared" si="341"/>
         <v>0.8333333333333357</v>
       </c>
       <c r="G798" s="19" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
     </row>
     <row r="799" spans="2:7">
-      <c r="B799" s="21">
-        <v>43511</v>
-      </c>
-      <c r="E799" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F799" s="47">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="G799" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B799" s="21"/>
+      <c r="F799" s="47"/>
     </row>
     <row r="800" spans="2:7">
-      <c r="B800" s="21">
-        <v>43511</v>
-      </c>
-      <c r="E800" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F800" s="47">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="G800" s="19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B800" s="21"/>
+      <c r="F800" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Study.xlsx
+++ b/Study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Mooc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B6C7D-73F4-4F08-A640-DB50B208BB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C05008-EAC2-43B6-B103-4A7D143F4F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,14 +44,6 @@
     <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1291,6 +1283,187 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="m/d;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="等线"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Microsoft YaHei"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -1485,187 +1658,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="m/d;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="等线"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Microsoft YaHei"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16469,10 +16461,10 @@
     <dataField name="求和项:duration(hrs)" fld="4" baseField="0" baseItem="0" numFmtId="180"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="19">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -17314,10 +17306,10 @@
     <dataField name="求和项:duration(hrs)" fld="4" baseField="0" baseItem="0" numFmtId="180"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -17345,19 +17337,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目" displayName="项目" ref="B2:H11" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="项目" displayName="项目" ref="B2:H11" headerRowDxfId="13" dataDxfId="12" totalsRowDxfId="11">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="course" totalsRowLabel="Total" dataDxfId="26" dataCellStyle="Indent"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="due" dataDxfId="25" dataCellStyle="Indent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="course" totalsRowLabel="Total" dataDxfId="10" dataCellStyle="Indent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="due" dataDxfId="9" dataCellStyle="Indent">
       <calculatedColumnFormula>项目[[#This Row],[next]] - TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="next" dataDxfId="24" dataCellStyle="Indent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="finish" dataDxfId="23" dataCellStyle="Indent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="all" dataDxfId="22" dataCellStyle="Indent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="progress" totalsRowFunction="count" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="next" dataDxfId="8" dataCellStyle="Indent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="finish" dataDxfId="7" dataCellStyle="Indent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="all" dataDxfId="6" dataCellStyle="Indent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="progress" totalsRowFunction="count" dataDxfId="5">
       <calculatedColumnFormula>项目[[#This Row],[finish]]/项目[[#This Row],[all]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="link" totalsRowFunction="count" dataDxfId="20" dataCellStyle="超链接"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="link" totalsRowFunction="count" dataDxfId="4" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="Weekly Planner Tables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -17657,7 +17649,7 @@
       </c>
       <c r="C3" s="47">
         <f ca="1">项目[[#This Row],[next]] - TODAY()</f>
-        <v>-43863</v>
+        <v>-44268</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="9">
@@ -17685,7 +17677,7 @@
       </c>
       <c r="C4" s="47">
         <f ca="1">项目[[#This Row],[next]] - TODAY()</f>
-        <v>-43863</v>
+        <v>-44268</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="9">
@@ -17713,7 +17705,7 @@
       </c>
       <c r="C5" s="47">
         <f ca="1">项目[[#This Row],[next]] - TODAY()</f>
-        <v>-43863</v>
+        <v>-44268</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="9">
@@ -17921,34 +17913,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="15" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="102" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="104" operator="between">
       <formula>7</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="105" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="106" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="11" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="79" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="80" operator="between">
       <formula>7</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="81" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="82" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17967,34 +17959,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="between">
       <formula>7</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
       <formula>7</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="between">
       <formula>14</formula>
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20743,7 +20735,7 @@
   </sheetPr>
   <dimension ref="A1:BD270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -52435,143 +52427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AssetExpire xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TPFriendlyName xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <IntlLangReview xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">845893</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <SubmitterId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AcquiredFrom xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <Markets xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
-    <OriginAsset xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AssetStart xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">2012-06-28T22:29:33+00:00</AssetStart>
-    <FriendlyTitle xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <MarketSpecific xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</MarketSpecific>
-    <TPNamespace xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Value>477958</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <OpenTemplate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TaxCatchAll xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
-    <Manager xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <NumericId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <ParentAssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">InProgress</ApprovalStatus>
-    <TPComponent xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <EditorialTags xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TPExecutable xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <LocComments xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <SourceTitle xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <CSXUpdate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</CSXUpdate>
-    <IntlLocPriority xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AssetType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <MachineTranslated xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</MachineTranslated>
-    <OutputCachingOn xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</OutputCachingOn>
-    <TemplateStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Complete</TemplateStatus>
-    <IsSearchable xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IsSearchable>
-    <ContentItem xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <ShowIn xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <UALocComments xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <UALocRecommendation xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <LegacyData xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <ClipArtFilename xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TPApplication xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <CSXHash xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <Downloads xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">0</Downloads>
-    <ArtSampleDocs xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TrustLevel xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <Providers xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <TPAppVersion xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <VoteCount xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AverageRating xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <UACurrentWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <AssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">TP102929987</AssetId>
-    <TPClientViewer xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <DSATActionTaken xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <APEditor xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <OOCacheId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <IsDeleted xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IsDeleted>
-    <PublishTargets xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <BugNumber xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <Milestone xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <OriginalRelease xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">15</OriginalRelease>
-    <RecommendationsModifier xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
-    <Description0 xmlns="a0b64b53-fba7-43ca-b952-90e5e74773dd" xsi:nil="true"/>
-    <Component0 xmlns="a0b64b53-fba7-43ca-b952-90e5e74773dd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="TemplateFile" ma:contentTypeID="0x0101008D8B3457135D67479991424C624CBB4704002439B9162B2E88498A324BEFF3815221" ma:contentTypeVersion="55" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7e4f43ee53fc86ae1dd6272262eb9fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="905c3888-6285-45d0-bd76-60a9ac2d738c" xmlns:ns3="a0b64b53-fba7-43ca-b952-90e5e74773dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12cd52f9b34cd953802493d919c383c5" ns2:_="" ns3:_="">
     <xsd:import namespace="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
@@ -53630,10 +53485,158 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AssetExpire xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TPFriendlyName xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <IntlLangReview xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">845893</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <SubmitterId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AcquiredFrom xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <Markets xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
+    <OriginAsset xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AssetStart xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">2012-06-28T22:29:33+00:00</AssetStart>
+    <FriendlyTitle xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <MarketSpecific xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</MarketSpecific>
+    <TPNamespace xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Value>477958</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <OpenTemplate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TaxCatchAll xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
+    <Manager xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <NumericId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <ParentAssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">InProgress</ApprovalStatus>
+    <TPComponent xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <EditorialTags xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TPExecutable xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <LocComments xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <SourceTitle xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <CSXUpdate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</CSXUpdate>
+    <IntlLocPriority xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AssetType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <MachineTranslated xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</MachineTranslated>
+    <OutputCachingOn xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</OutputCachingOn>
+    <TemplateStatus xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Complete</TemplateStatus>
+    <IsSearchable xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IsSearchable>
+    <ContentItem xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <ShowIn xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <UALocComments xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <UALocRecommendation xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <LegacyData xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <ClipArtFilename xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TPApplication xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <CSXHash xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <Downloads xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">0</Downloads>
+    <ArtSampleDocs xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TrustLevel xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <Providers xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <TPAppVersion xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <VoteCount xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AverageRating xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <UACurrentWords xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <AssetId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">TP102929987</AssetId>
+    <TPClientViewer xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <DSATActionTaken xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <APEditor xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <OOCacheId xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <IsDeleted xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</IsDeleted>
+    <PublishTargets xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <BugNumber xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <Milestone xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <OriginalRelease xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">15</OriginalRelease>
+    <RecommendationsModifier xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="905c3888-6285-45d0-bd76-60a9ac2d738c" xsi:nil="true"/>
+    <Description0 xmlns="a0b64b53-fba7-43ca-b952-90e5e74773dd" xsi:nil="true"/>
+    <Component0 xmlns="a0b64b53-fba7-43ca-b952-90e5e74773dd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4FEE221-42CE-4499-AA86-34AC294DC780}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E974EB3C-D0ED-4B3B-9891-37E7C0804F16}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
+    <ds:schemaRef ds:uri="a0b64b53-fba7-43ca-b952-90e5e74773dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -53656,20 +53659,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E974EB3C-D0ED-4B3B-9891-37E7C0804F16}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4FEE221-42CE-4499-AA86-34AC294DC780}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="905c3888-6285-45d0-bd76-60a9ac2d738c"/>
-    <ds:schemaRef ds:uri="a0b64b53-fba7-43ca-b952-90e5e74773dd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>